--- a/Documentação/Tabelas/Equipamentos Activos e Passivos.xlsx
+++ b/Documentação/Tabelas/Equipamentos Activos e Passivos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Equipamento</t>
   </si>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,14 +597,6 @@
       </c>
       <c r="F9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
